--- a/data/Troops.xlsx
+++ b/data/Troops.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="534">
   <si>
     <t>ルナ初戦ボッコテスト</t>
   </si>
@@ -1342,6 +1342,9 @@
     <t>リリー</t>
   </si>
   <si>
+    <t>Rewrite     -   Lily</t>
+  </si>
+  <si>
     <t>0:挿入+乳首舐めA 1:挿入+乳首舐めB 2:ライムフェラ 3:顔舐め</t>
   </si>
   <si>
@@ -1361,6 +1364,9 @@
   </si>
   <si>
     <t>シィナ</t>
+  </si>
+  <si>
+    <t>Sina</t>
   </si>
   <si>
     <t>0:手コキ 1:頬ずり 2:ちんキス 3:扱き誘惑</t>
@@ -2372,7 +2378,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B532"/>
+  <dimension ref="A1:C532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2380,612 +2386,612 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2993,2054 +2999,2063 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="C146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:2">
+      <c r="C358" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
+        <v>365</v>
+      </c>
+      <c r="C365" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
       <c r="A519" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
       <c r="A520" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
       <c r="A522" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
       <c r="A523" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
       <c r="A524" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
       <c r="A525" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
       <c r="A526" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
       <c r="A527" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
       <c r="A528" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
       <c r="A529" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
       <c r="A530" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
       <c r="A531" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
       <c r="A532" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/data/Troops.xlsx
+++ b/data/Troops.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="547">
   <si>
     <t>ルナ初戦ボッコテスト</t>
   </si>
@@ -1342,7 +1342,7 @@
     <t>リリー</t>
   </si>
   <si>
-    <t>Rewrite     -   Lily</t>
+    <t>Lily</t>
   </si>
   <si>
     <t>0:挿入+乳首舐めA 1:挿入+乳首舐めB 2:ライムフェラ 3:顔舐め</t>
@@ -1366,7 +1366,7 @@
     <t>シィナ</t>
   </si>
   <si>
-    <t>Sina</t>
+    <t>Shina</t>
   </si>
   <si>
     <t>0:手コキ 1:頬ずり 2:ちんキス 3:扱き誘惑</t>
@@ -1539,8 +1539,15 @@
     <t>\n&lt;\n[3]&gt;んにゃん・・・！！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;N-Nyaahhh...!!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;んにゃん・・・！
 こ、コイツ・・・！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;N-Nyaahhh...!
+W-Why you...!</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;にゃん？
@@ -1558,25 +1565,51 @@
 命乞いするなら今がチャンスにゃぁ？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I spy a small fry hunter-nya!
+And now I'm going to execute your cheeky penis♥
+Any last words-nya?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;はぁ・・・はぁ・・・
 あ、アタシに触るな・・・！
 んにゃ・・・ぁ・・・♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Haah... Haah...
+D-Don't touch me...!
+I'm gonna...ahh-nyaaa♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;も、もうやめるにゃ・・・♥
 お前だって気持ちよくなりたいにゃん？
 んにゃ・・・♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;N-No more nya...♥
+You want to feel good too don't you-nya?
+Nya...♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;お前の大好きな足、してやるにゃん・・・♥
 今までアタシに射精させられたこと、思い出すにゃん♥
 ほら♥シテやるからぁ・・・♥</t>
   </si>
   <si>
+    <t>"\n&lt;\n[3]&gt;Doing it with the foot of your fantasies-nya...♥
+I know you remember all the times it's made you squirt until now-nya♥
+Hora♥ I can do it for you again♥"</t>
+  </si>
+  <si>
     <t>今すぐイカせる</t>
   </si>
   <si>
+    <t>Make her cum right away</t>
+  </si>
+  <si>
     <t>\C[10]足コキされたい</t>
+  </si>
+  <si>
+    <t>I wanna get a footjob...</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;んにゃぁっ♥
@@ -1584,7 +1617,15 @@
 んにゃ・・・</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Nyaaah♥
+D-Don't touch... ahhhnyaa-♥
+Nyahhh...</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;にゃぁぁぁぁぁぁぁぁ♥♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nyaaaaaaa♥♥♥</t>
   </si>
   <si>
     <t>0:パイズリ 1:パイズリ交互 2:圧迫 3:顔舐め</t>
@@ -1595,6 +1636,11 @@
 戦えるのかなー？くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Remember how much I made you go squirt squirt?
+I bet your penis remembers real well though~
+Are you sure you can fight? Teehee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;そっちがその気なら仕方ないねー。
 いいよ！
 とろっとろに溶かしてあげるー！</t>
@@ -1654,8 +1700,17 @@
 くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;So you think you can fight your desire to be milked by me?
+Your dick seems to be leaking and throbbing with anticipation though.
+Teehee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;遊んであげる。
 精々頑張りなさい。雑魚ハンター。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'll play with you.
+Do your absolute best, small fry hunter-</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;はぅぅ♥
@@ -2378,7 +2433,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C532"/>
+  <dimension ref="A1:D532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2386,612 +2441,612 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2999,122 +3054,122 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3122,1062 +3177,1062 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -4185,37 +4240,37 @@
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>365</v>
       </c>
@@ -4223,839 +4278,878 @@
         <v>366</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="412" spans="1:3">
+      <c r="D411" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D412" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
+        <v>418</v>
+      </c>
+      <c r="D415" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3">
+        <v>420</v>
+      </c>
+      <c r="D416" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3">
+        <v>422</v>
+      </c>
+      <c r="D417" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3">
+        <v>424</v>
+      </c>
+      <c r="D418" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3">
+        <v>426</v>
+      </c>
+      <c r="D419" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3">
+        <v>428</v>
+      </c>
+      <c r="D420" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3">
+        <v>430</v>
+      </c>
+      <c r="D421" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3">
+        <v>432</v>
+      </c>
+      <c r="D422" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3">
+        <v>435</v>
+      </c>
+      <c r="D424" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
       <c r="A426" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
       <c r="A429" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
       <c r="A435" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
       <c r="A437" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
       <c r="A438" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3">
+        <v>450</v>
+      </c>
+      <c r="D438" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
       <c r="A439" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
+        <v>452</v>
+      </c>
+      <c r="D439" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
       <c r="A440" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
       <c r="A441" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
       <c r="A442" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
       <c r="A443" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
       <c r="A445" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
       <c r="A446" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
       <c r="A448" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
       <c r="A449" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
       <c r="A450" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
       <c r="A451" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
       <c r="A452" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
       <c r="A453" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
       <c r="A454" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
       <c r="A455" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
       <c r="A456" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
       <c r="A457" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
       <c r="A458" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
       <c r="A463" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
       <c r="A466" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
       <c r="A468" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
       <c r="A469" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
       <c r="A470" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
       <c r="A471" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
       <c r="A472" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
       <c r="A474" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
       <c r="A475" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
       <c r="A476" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
       <c r="A477" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
       <c r="A478" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
       <c r="A482" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
       <c r="A483" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
       <c r="A484" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
       <c r="A485" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
       <c r="A486" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
       <c r="A487" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
       <c r="A488" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
       <c r="A489" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
       <c r="A490" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
       <c r="A491" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
       <c r="A492" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
       <c r="A493" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
       <c r="A494" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
       <c r="A495" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
       <c r="A496" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
       <c r="A497" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
       <c r="A498" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
       <c r="A499" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
       <c r="A500" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
       <c r="A501" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
       <c r="A502" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
       <c r="A503" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
       <c r="A504" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
       <c r="A505" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
       <c r="A506" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
       <c r="A507" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
       <c r="A508" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
       <c r="A509" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
       <c r="A510" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
       <c r="A511" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
       <c r="A512" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
       <c r="A525" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
       <c r="A526" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
       <c r="A527" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
       <c r="A528" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
       <c r="A529" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
       <c r="A530" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
       <c r="A531" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
       <c r="A532" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/data/Troops.xlsx
+++ b/data/Troops.xlsx
@@ -1636,8 +1636,8 @@
 戦えるのかなー？くすくす♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;Remember how much I made you go squirt squirt?
-I bet your penis remembers real well though~
+    <t>\n&lt;\n[3]&gt;I've made you go squirt squirt so much now-
+Ooh- I bet your penis remembers real well though right~?
 Are you sure you can fight? Teehee♥</t>
   </si>
   <si>

--- a/data/Troops.xlsx
+++ b/data/Troops.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="549">
   <si>
     <t>ルナ初戦ボッコテスト</t>
   </si>
@@ -865,6 +865,9 @@
     <t>・・・</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;やっぱり激しくがいいんじゃないですか。
 変な\n[1]♥
 えへへ♥じゃぁ本気でいきます♥</t>
@@ -1352,6 +1355,9 @@
   </si>
   <si>
     <t>ライム</t>
+  </si>
+  <si>
+    <t>Lime</t>
   </si>
   <si>
     <t>0:抱っこ 1:腰振り 2:誘惑 3:パイズリ</t>
@@ -3656,1500 +3662,1512 @@
       <c r="A242" t="s">
         <v>241</v>
       </c>
+      <c r="D242" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C358" t="s">
-        <v>358</v>
+        <v>359</v>
+      </c>
+      <c r="D358" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="D361" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>366</v>
+        <v>368</v>
+      </c>
+      <c r="D365" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D411" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D412" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D415" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D416" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D417" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D418" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D419" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D420" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D421" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D422" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D424" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D438" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D439" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/data/Troops.xlsx
+++ b/data/Troops.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="556">
   <si>
     <t>ルナ初戦ボッコテスト</t>
   </si>
@@ -1460,8 +1460,16 @@
 もう逃げられないにゃぁ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Oh dear. It went in.
+There's no running away now-nya♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;レベル1でアタシに勝てるわけないにゃ。
 死にかけの虫みたいにビクビク震えてろばーか♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;There's no way you can defeat me at just level 1-nya.
+You're already twitching like a dying insect, fool♥</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;はい♥捕まえた♥
@@ -1469,11 +1477,20 @@
 好きでしょ？私とのセックス♥</t>
   </si>
   <si>
+    <t>\n&lt;リリー&gt;Okay!♥ He's being held down♥
+I'm sure he can be milked again♥
+You'd love that wouldn't you? Sex with me-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あーぁ。
 腰止まらなくなってるじゃない。
 くすっ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あーぁ。
+腰止まらなくなってるじゃない。くすっ♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ほーらチンポ入ったにゃ♥
 犯してほしかったんだろー？にゃはは♥</t>
   </si>
@@ -1501,6 +1518,10 @@
   </si>
   <si>
     <t>\n&lt;ライム&gt;どっちもがんばれー♥
+ファイトー♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;どっちもがんばれー♥
 ファイトー♥</t>
   </si>
   <si>
@@ -1525,6 +1546,10 @@
 ぶっ殺すにゃ！</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;おいボケこら！
+諦めてんじゃねー！ぶっ殺すにゃ！</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;あはははは！
 この勝負、私の勝ちね。</t>
   </si>
@@ -1540,6 +1565,10 @@
     <t>\n&lt;\n[3]&gt;はぁ・・・はぁ・・・♥
 や、やめるにゃん・・・！
 あっあっ！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;はぁ・・・はぁ・・・♥
+や、やめるにゃん・・・！あっあっ！！</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;んにゃん・・・！！</t>
@@ -4420,754 +4449,817 @@
       <c r="A390" t="s">
         <v>393</v>
       </c>
+      <c r="D390" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>394</v>
+        <v>395</v>
+      </c>
+      <c r="D391" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>395</v>
+        <v>397</v>
+      </c>
+      <c r="D392" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>396</v>
+        <v>399</v>
+      </c>
+      <c r="D393" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>397</v>
+        <v>401</v>
+      </c>
+      <c r="D394" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>398</v>
+        <v>402</v>
+      </c>
+      <c r="D395" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>399</v>
+        <v>403</v>
+      </c>
+      <c r="D396" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>400</v>
+        <v>404</v>
+      </c>
+      <c r="D397" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" t="s">
-        <v>401</v>
+        <v>405</v>
+      </c>
+      <c r="D398" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" t="s">
-        <v>402</v>
+        <v>406</v>
+      </c>
+      <c r="D399" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" t="s">
-        <v>403</v>
+        <v>407</v>
+      </c>
+      <c r="D400" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" t="s">
-        <v>404</v>
+        <v>408</v>
+      </c>
+      <c r="D401" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" t="s">
-        <v>405</v>
+        <v>410</v>
+      </c>
+      <c r="D402" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
-        <v>406</v>
+        <v>411</v>
+      </c>
+      <c r="D403" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" t="s">
-        <v>407</v>
+        <v>412</v>
+      </c>
+      <c r="D404" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" t="s">
-        <v>408</v>
+        <v>413</v>
+      </c>
+      <c r="D405" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" t="s">
-        <v>409</v>
+        <v>414</v>
+      </c>
+      <c r="D406" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" t="s">
-        <v>410</v>
+        <v>416</v>
+      </c>
+      <c r="D407" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" t="s">
-        <v>411</v>
+        <v>417</v>
+      </c>
+      <c r="D408" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" t="s">
-        <v>412</v>
+        <v>418</v>
+      </c>
+      <c r="D409" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" t="s">
-        <v>413</v>
+        <v>419</v>
+      </c>
+      <c r="D410" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D411" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D412" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D415" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D416" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D417" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D418" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D419" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D420" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D421" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D422" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D424" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D438" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D439" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/data/Troops.xlsx
+++ b/data/Troops.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
   <si>
     <t>ルナ初戦ボッコテスト</t>
   </si>
@@ -350,6 +350,9 @@
     <t>ロメリア檻越しキス</t>
   </si>
   <si>
+    <t>リリーエンディング手コキ</t>
+  </si>
+  <si>
     <t>ロメリアバトル</t>
   </si>
   <si>
@@ -377,6 +380,66 @@
     <t>デカリリーバトル</t>
   </si>
   <si>
+    <t>ベルーチェバトル</t>
+  </si>
+  <si>
+    <t>チョコレバトル</t>
+  </si>
+  <si>
+    <t>つよトラ</t>
+  </si>
+  <si>
+    <t>トラまたたび</t>
+  </si>
+  <si>
+    <t>オーク</t>
+  </si>
+  <si>
+    <t>ウィッチラミア</t>
+  </si>
+  <si>
+    <t>マンティス</t>
+  </si>
+  <si>
+    <t>ミニマムとら</t>
+  </si>
+  <si>
+    <t>ミニマムマンティス</t>
+  </si>
+  <si>
+    <t>ミニマムオーク</t>
+  </si>
+  <si>
+    <t>ミニマムウィッチ</t>
+  </si>
+  <si>
+    <t>チョコレ誘惑挿入</t>
+  </si>
+  <si>
+    <t>ベルーチェ誘惑挿入</t>
+  </si>
+  <si>
+    <t>ベルチョコ体力0</t>
+  </si>
+  <si>
+    <t>チョコレ接触1顔舐め</t>
+  </si>
+  <si>
+    <t>チョコレ接触2胸押し付け</t>
+  </si>
+  <si>
+    <t>ベルーチェ接触1キス</t>
+  </si>
+  <si>
+    <t>ベルーチェ接触2手コキ</t>
+  </si>
+  <si>
+    <t>チョコレ媚薬クンニ</t>
+  </si>
+  <si>
+    <t>ベルーチェ乳見せ</t>
+  </si>
+  <si>
     <t>シィナバックバトル</t>
   </si>
   <si>
@@ -384,6 +447,11 @@
   </si>
   <si>
     <t>チュートリアルリリス</t>
+  </si>
+  <si>
+    <t>0ﾌｨﾘ 1ﾏｰｶﾞﾚ 2ｻｷｭ 3ｱｲﾘ 4ﾕｲﾈ 5ｼｬﾙ 6ﾁｭｰ 7ﾏｵ
+8ﾘﾘｽ 9ﾌｪﾗ高 10ﾌｪﾗ中 11ﾌｪﾗ低 12ﾄﾙﾃ 13ｷﾙｼｭ
+14ｼｰﾌﾟ15ｼｨﾅ 16ｴｲﾐｰ</t>
   </si>
   <si>
     <t>メス</t>
@@ -447,6 +515,17 @@
 あははは！</t>
   </si>
   <si>
+    <t>攻撃種類</t>
+  </si>
+  <si>
+    <t>0手 1足 2キス 3パイ 4フェラ 5脇 6誘惑 7騎乗位 8正常 9バック
+10誘惑 11何もしない 12女性攻撃 13エナドレ 14触手吸 15ｼｬﾙﾁｭ
+16太ももコキ 17貧パイ</t>
+  </si>
+  <si>
+    <t>待機モーション</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ぎゃー！！！！</t>
   </si>
   <si>
@@ -542,6 +621,11 @@
 あうぅぅ・・・！！</t>
   </si>
   <si>
+    <t>0ﾌｨﾘ 1ﾏｰｶﾞﾚ 2ｻｷｭ 3ｱｲﾘ 4ﾕｲﾈ 5ｼｬﾙ 6ﾁｭｰ 7ﾏｵ
+8ﾘﾘｽ 9ﾌｪﾗ高 10ﾌｪﾗ中 11ﾌｪﾗ低 12ﾄﾙﾃ 13ｷﾙｼｭ
+14ｼｰﾌﾟ</t>
+  </si>
+  <si>
     <t>属性：悪　弱点：雷</t>
   </si>
   <si>
@@ -671,6 +755,13 @@
 あはは♥</t>
   </si>
   <si>
+    <t>0ﾌｨﾘ 1ﾏｰｶﾞﾚ 2ｻｷｭ 3ｱｲﾘ 4ﾕｲﾈ 5ｼｬﾙ 6ﾁｭｰ 7ﾏｵ8ﾘﾘｽ 9ﾌｪﾗ高 10ﾌｪﾗ中 
+11ﾌｪﾗ低 12ﾄﾙﾃ 13ｷﾙｼｭ 14ｼｰﾌﾟ15ｼｨﾅ 16ｴｲﾐｰ 17ｷｴﾘ 18ﾉﾉ 19ﾘﾘﾌｪﾗ
+20ﾅｰｽ 21ﾘｯﾌﾟｽ 22ﾎﾟﾘｰ 23ｻｷｭﾊﾞｽ 24ﾛｰｽﾞ 25ｳｨｯﾁ 26ﾋｭﾌﾟﾉ 27ｱﾘｽ
+28ｽﾗｲﾑ 29夢喰い 30ﾛﾘA 31ﾛﾘB 32ﾛﾘC 33ﾌﾟﾘｽﾞﾏ 34ﾘﾘに 35ﾉﾉｷｽ
+40普通A 41普通B 43普通C</t>
+  </si>
+  <si>
     <t>勇者ちゃん</t>
   </si>
   <si>
@@ -774,6 +865,14 @@
     <t>GAUGE_PICTURE 82 仲間ゲージ1</t>
   </si>
   <si>
+    <t>0ﾌｨﾘ 1ﾏｰｶﾞﾚ 2ｻｷｭ 3ｱｲﾘ 4ﾕｲﾈ 5ｼｬﾙ 6ﾁｭｰ 7ﾏｵ8ﾘﾘｽ 9ﾌｪﾗ高 10ﾌｪﾗ中 
+11ﾌｪﾗ低 12ﾄﾙﾃ 13ｷﾙｼｭ 14ｼｰﾌﾟ15ｼｨﾅ 16ｴｲﾐｰ 17ｷｴﾘ 18ﾉﾉ 19ﾘﾘﾌｪﾗ
+20ﾅｰｽ 21ﾘｯﾌﾟｽ 22ﾎﾟﾘｰ 23ｻｷｭﾊﾞｽ 24ﾛｰｽﾞ 25ｳｨｯﾁ 26ﾋｭﾌﾟﾉ 27ｱﾘｽ
+28ｽﾗｲﾑ 29夢喰い 30ﾛﾘA 31ﾛﾘB 32ﾛﾘC 33ﾌﾟﾘｽﾞﾏ 34ﾘﾘに 35ﾉﾉｷｽ
+36ｼﾙｷ 37ｴﾙﾌ 38ﾀｺ 39ｴﾗｯﾀ　40普通A 41普通B 43普通C 44ｱﾆﾏ
+45ﾗﾐｱ 47ﾙﾅ 48猫</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;・・・！倒れた！
 チャーンスっ♥</t>
   </si>
@@ -1477,7 +1576,7 @@
 好きでしょ？私とのセックス♥</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;Okay!♥ He's being held down♥
+    <t>\n&lt;Lily&gt;Okay!♥ He's being held down♥
 I'm sure he can be milked again♥
 You'd love that wouldn't you? Sex with me-♥</t>
   </si>
@@ -1502,6 +1601,10 @@
 起きなさいよ。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;何ぶっ倒れてんの？
+起きなさいよ。</t>
+  </si>
+  <si>
     <t>0:腰振り 1:腰振らせ 2:スマタ 3:パイズリ</t>
   </si>
   <si>
@@ -1509,6 +1612,10 @@
 \n[1]なんかに負けるんじゃないわよ。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;ロメリア！
+\n[1]なんかに負けるんじゃないわよ。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;はぁい♥
 リリー様ぁ♥頑張りますぅ♥</t>
   </si>
@@ -1517,6 +1624,10 @@
 イったら殺すにゃ。</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;\n[1]。
+イったら殺すにゃ。</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;どっちもがんばれー♥
 ファイトー♥</t>
   </si>
@@ -1537,7 +1648,15 @@
 イったらオシオキよ！</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;こら！なに気持ちよくなってんのよ！
+イったらオシオキよ！</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;にゃははは♥
+イカせろ！イカせろ！\n[1]！</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;にゃははは♥
 イカせろ！イカせろ！\n[1]！</t>
   </si>
   <si>
@@ -1546,7 +1665,7 @@
 ぶっ殺すにゃ！</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;おいボケこら！
+    <t>\n&lt;Shina&gt;おいボケこら！
 諦めてんじゃねー！ぶっ殺すにゃ！</t>
   </si>
   <si>
@@ -1554,7 +1673,15 @@
 この勝負、私の勝ちね。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;あはははは！
+この勝負、私の勝ちね。</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;たまにはこっちも可愛がってあげなきゃね♥
+くすくす♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;たまにはこっちも可愛がってあげなきゃね♥
 くすくす♥</t>
   </si>
   <si>
@@ -1590,6 +1717,16 @@
 雑魚チンポ。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;これはお礼なんだからね。
+だから、力を抜いて・・・♥
+全部私に任せて♥</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;ん・・・♥ちゅっ♥
+セックスだと精気吸っちゃうから・・・
+手でね・・・♥ちゅぅ♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;アタシ、お前を何回イカせたか覚えてないし。
 今更勝負にならんと思うにゃぁ。
 にゃははは♥</t>
@@ -1922,6 +2059,9 @@
 いいよー♥食べてあげるー♥</t>
   </si>
   <si>
+    <t>0:足コキ 1:太ももコキ 2:ぐりぐり 3:キス 4:必殺</t>
+  </si>
+  <si>
     <t>0:足コキ 1:ぐりぐり 2:太ももコキ 3:キス 4:必殺</t>
   </si>
   <si>
@@ -2061,6 +2201,216 @@
     <t>\n&lt;\n[3]&gt;逃げないの？
 じゃあ口の中でぐちゅぐちゅにしてあげる♥
 あーん♥</t>
+  </si>
+  <si>
+    <t>0:手コキ 1:キス 2:胸見せ 3:尻コキ</t>
+  </si>
+  <si>
+    <t>ベルーチェ</t>
+  </si>
+  <si>
+    <t>属性：人　弱点：胸</t>
+  </si>
+  <si>
+    <t>チョコレ</t>
+  </si>
+  <si>
+    <t>0:顔舐め 1:キス手コキ 2:ベロチュー手コキ 3:穴責め</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;ペニスは刺激を与えられると
+精液を吐き出しちゃうように出来てるんれすよ？
+ほら、どうせ出しちゃうんれす♥我慢しないれ♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;くひひ♥もうカッチカチれすね♥
+敵に興奮して大きくしちゃうなんて
+流石ハンターさんれす♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（うぁ・・・！出る・・・！！
+でも・・・
+絶対・・・耐えないと・・・！！！）</t>
+  </si>
+  <si>
+    <t>ダメだ・・・！
+絶対に負けられない・・・！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;あれ～？今イっちゃいそうれしたぁ？
+くすくす♥
+そんなに興奮しちゃったんれすかぁ？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;あうぅぅぅう・・・♥
+ま、またイっちゃう・・・！！
+負けちゃいますぅ・・・！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;あうあうあうあう！！
+な、なんか来ちゃいますよぉ♥
+凄いの来る・・・♥♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;ああぁぁぁぁぁぁぁぁん♥♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;はぅぅ・・・♥
+き、気持ちいいれす・・・♥
+またイカされちゃいますよぅ♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;はぅぅ・・・♥
+き、気持ちいいれす・・・♥
+何かじわじわと・・・上がってきます・・・♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;おや、これは想定外の反応れす。
+まさかここにきて、自ら敗北を選択するとは。
+人は時に理解を超える選択をします♥くすくす♥</t>
+  </si>
+  <si>
+    <t>0:顔騎 1:ぱふぱふ 2:擦り付け 3:騎乗位</t>
+  </si>
+  <si>
+    <t>0ﾌｨﾘ 1ﾏｰｶﾞﾚ 2ｻｷｭ 3ｱｲﾘ 4ﾕｲﾈ 5ｼｬﾙ 6ﾁｭｰ 7ﾏｵ8ﾘﾘｽ 9ﾌｪﾗ高 10ﾌｪﾗ中 
+11ﾌｪﾗ低 12ﾄﾙﾃ 13ｷﾙｼｭ 14ｼｰﾌﾟ15ｼｨﾅ 16ｴｲﾐｰ 17ｷｴﾘ 18ﾉﾉ 19ﾘﾘﾌｪﾗ
+20ﾅｰｽ 21ﾘｯﾌﾟｽ 22ﾎﾟﾘｰ 23ｻｷｭﾊﾞｽ 24ﾛｰｽﾞ 25ｳｨｯﾁ 26ﾋｭﾌﾟﾉ 27ｱﾘｽ
+28ｽﾗｲﾑ 29夢喰い 30ﾛﾘA 31ﾛﾘB 32ﾛﾘC 33ﾌﾟﾘｽﾞﾏ 34ﾘﾘに 35ﾉﾉｷｽ
+36ｼﾙｷ 37ｴﾙﾌ 38ﾀｺ 39ｴﾗｯﾀ　40普通A 41普通B 43普通C 44ｱﾆﾏ
+45ﾗﾐｱ 47ﾙﾅ 48猫 49ﾕｲﾈ 50ﾏｷｻ 51ｳｫﾙﾌ 52ｽﾗﾐｰ 53ﾗｲﾑ 54ｱｰｺ</t>
+  </si>
+  <si>
+    <t>55ﾘﾘｰ 56ﾛﾒ 57ﾗｲﾑB 58ﾘﾘｰ強気</t>
+  </si>
+  <si>
+    <t>とら</t>
+  </si>
+  <si>
+    <t>0:パイズリ 1:はさみつぶす 2:なめる</t>
+  </si>
+  <si>
+    <t>無理やり押さえつけられた！
+分が悪い・・・今は逃げた方がいいかもしれない・・・！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;あーハラ減った！
+すーぐ喰ってヤル。
+抵抗すんなよー。がおー。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;はぁ・・・はぁ・・・♥
+ま、まってよう・・・！
+気持ちいいの来る・・・！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;んにゃおおおおん・・・！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;にゃおん・・・！
+なんだァ？てめェ・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;もう動けなくなった。雑魚。
+あーあ。
+活きが悪い獲物はあんまり美味そうじゃねーなぁ。</t>
+  </si>
+  <si>
+    <t>とらのまたたびをぶちまけた！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;んにゃおー！
+それオレのまたたびじゃんか！
+あっ♥あっ♥勝手に使うなー！</t>
+  </si>
+  <si>
+    <t>とらはラリった！
+とらのステータスが激減した！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;おあぁ・・・！
+んにゃぉ♥
+やば♥これ♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;犯してヤル♥犯してヤル♥
+くくく♥覚悟しろよー。
+へへへへへー♥</t>
+  </si>
+  <si>
+    <t>0:うちつける 1:騎乗位 2:ぐりぐり</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;あはは♥
+アタシとヤろうってのか♥
+挑んだこと、後悔させてやるよ。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;ちょっと待て・・・！
+いや、待って・・・！！
+なんで、こんな・・・ッ！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;あぁぁぁぁぁ！！！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;はぁ・・・はぁ・・・
+やるじゃねーか♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;オマエもオークのオスと同じだな♥
+アタシのケツを見たら精子出したくて
+それ以外のことが考えられなくなる♥あははは！！</t>
+  </si>
+  <si>
+    <t>0:パイズリ 1:パイズリ交互 2:パフパフ</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;ふふ♥アナタとっても美味しそう♥
+食べちゃってもいいかしら♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;あっあっあっ・・・！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;あぁぁぁぁイクゥゥゥ！！！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;何よ・・・！
+何なのこの子・・・！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;締め付けすぎてぐったりしちゃった？
+ペニスはこんなにギンギンなのに。
+あはは♥</t>
+  </si>
+  <si>
+    <t>0:フェラ 1:舐め 2:ちんキス</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;可愛いお嬢さん♥
+食べちゃってもいいかしら♥
+くすくす♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;可愛いボウヤね♥
+食べちゃいたい♥
+くす♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;イ・・・イっちゃう・・・！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;あぁぁぁぁん！！！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;ん・・・！！
+やるじゃない・・・♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;あらあら。抵抗しないのね。
+諦めたら後は食べられるだけなのに。
+本当にそれでいいの？ふふ♥</t>
   </si>
   <si>
     <t>0:バック 1:アナル挿入 2:舐めさせ 3:誘惑</t>
@@ -2468,7 +2818,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D532"/>
+  <dimension ref="A1:B613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,2790 +2826,4665 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="B101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="B103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="B110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="B113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="B117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="B119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="B120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="B121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="B142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="B143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-      <c r="C146" t="s">
+      <c r="B146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="B147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="B148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="B149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="B150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="B151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="B152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="B153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="B154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="B155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="B156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="B157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="B158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="B159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="B160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="B161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="B165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="B166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="B167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="B168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="B169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="B170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="B171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="B172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="B173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="B174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="B175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="B176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="B177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="B178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="B179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="B180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="B181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="B182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="B183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="B184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="B185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="B186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="B187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="B188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="B189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="B191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="B192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="B193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="B194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="B195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="B196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="B197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="B198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="B199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="B200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="B201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="B202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="B203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="B204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="B205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="B206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="B207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="B208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="B209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="B210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="B211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="B212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="B213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="B214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="B215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="B216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="B217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="B218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="B219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="B220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="B221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="B223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="B224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="B225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="B226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="B227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="B228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="B229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="B230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="B231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="B232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="B233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="B234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="B235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="B236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="B237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="B238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="B239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="B240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="B241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-      <c r="D242" t="s">
+      <c r="B242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
+      <c r="B243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
+      <c r="B244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
+      <c r="B245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
+      <c r="B246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" t="s">
+      <c r="B247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" t="s">
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" t="s">
+      <c r="B249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" t="s">
+      <c r="B250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" t="s">
+      <c r="B251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" t="s">
+      <c r="B252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" t="s">
+      <c r="B253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" t="s">
+      <c r="B254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" t="s">
+      <c r="B255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" t="s">
+      <c r="B256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" t="s">
+      <c r="B257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" t="s">
+      <c r="B258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" t="s">
+      <c r="B259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" t="s">
+      <c r="B260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" t="s">
+      <c r="B261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" t="s">
+      <c r="B262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" t="s">
+      <c r="B263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264" t="s">
+      <c r="B264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" t="s">
+      <c r="B265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266" t="s">
+      <c r="B266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" t="s">
+      <c r="B267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" t="s">
+      <c r="B268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" t="s">
+      <c r="B269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" t="s">
+      <c r="B270" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="272" spans="1:4">
+      <c r="B271" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="273" spans="1:4">
+      <c r="B272" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
+      <c r="B273" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
+      <c r="B274" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="B275" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
+      <c r="B276" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="278" spans="1:4">
+      <c r="B277" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="279" spans="1:4">
+      <c r="B278" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="280" spans="1:4">
+      <c r="B279" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="281" spans="1:4">
+      <c r="B280" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="282" spans="1:4">
+      <c r="B281" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="283" spans="1:4">
+      <c r="B282" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="284" spans="1:4">
+      <c r="B283" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="285" spans="1:4">
+      <c r="B284" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="286" spans="1:4">
+      <c r="B285" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="287" spans="1:4">
+      <c r="B286" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="288" spans="1:4">
+      <c r="B287" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="289" spans="1:4">
+      <c r="B288" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="B289" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="291" spans="1:4">
+      <c r="B290" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="292" spans="1:4">
+      <c r="B291" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="293" spans="1:4">
+      <c r="B292" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="294" spans="1:4">
+      <c r="B293" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="B294" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="296" spans="1:4">
+      <c r="B295" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="297" spans="1:4">
+      <c r="B296" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="B297" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="299" spans="1:4">
+      <c r="B298" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="300" spans="1:4">
+      <c r="B299" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="301" spans="1:4">
+      <c r="B300" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="302" spans="1:4">
+      <c r="B301" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="303" spans="1:4">
+      <c r="B302" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="304" spans="1:4">
+      <c r="B303" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="305" spans="1:4">
+      <c r="B304" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="306" spans="1:4">
+      <c r="B305" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="307" spans="1:4">
+      <c r="B306" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="308" spans="1:4">
+      <c r="B307" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="309" spans="1:4">
+      <c r="B308" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="310" spans="1:4">
+      <c r="B309" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="311" spans="1:4">
+      <c r="B310" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="312" spans="1:4">
+      <c r="B311" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
       <c r="A312" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="313" spans="1:4">
+      <c r="B312" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
       <c r="A313" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="314" spans="1:4">
+      <c r="B313" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
       <c r="A314" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="315" spans="1:4">
+      <c r="B314" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
       <c r="A315" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="316" spans="1:4">
+      <c r="B315" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
       <c r="A316" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="317" spans="1:4">
+      <c r="B316" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
       <c r="A317" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="318" spans="1:4">
+      <c r="B317" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
       <c r="A318" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="319" spans="1:4">
+      <c r="B318" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
       <c r="A319" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="320" spans="1:4">
+      <c r="B319" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
       <c r="A320" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="321" spans="1:4">
+      <c r="B320" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
       <c r="A321" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="322" spans="1:4">
+      <c r="B321" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
       <c r="A322" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="323" spans="1:4">
+      <c r="B322" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
       <c r="A323" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="324" spans="1:4">
+      <c r="B323" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
       <c r="A324" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="325" spans="1:4">
+      <c r="B324" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
       <c r="A325" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="326" spans="1:4">
+      <c r="B325" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
       <c r="A326" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="327" spans="1:4">
+      <c r="B326" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
       <c r="A327" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="328" spans="1:4">
+      <c r="B327" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
       <c r="A328" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="329" spans="1:4">
+      <c r="B328" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
       <c r="A329" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="330" spans="1:4">
+      <c r="B329" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
       <c r="A330" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="331" spans="1:4">
+      <c r="B330" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
       <c r="A331" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="332" spans="1:4">
+      <c r="B331" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
       <c r="A332" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="333" spans="1:4">
+      <c r="B332" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
       <c r="A333" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="334" spans="1:4">
+      <c r="B333" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
       <c r="A334" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="335" spans="1:4">
+      <c r="B334" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
       <c r="A335" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="336" spans="1:4">
+      <c r="B335" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
       <c r="A336" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="337" spans="1:4">
+      <c r="B336" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
       <c r="A337" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="338" spans="1:4">
+      <c r="B337" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
       <c r="A338" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="339" spans="1:4">
+      <c r="B338" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
       <c r="A339" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="340" spans="1:4">
+      <c r="B339" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
       <c r="A340" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="341" spans="1:4">
+      <c r="B340" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
       <c r="A341" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="342" spans="1:4">
+      <c r="B341" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
       <c r="A342" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="343" spans="1:4">
+      <c r="B342" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
       <c r="A343" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="344" spans="1:4">
+      <c r="B343" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
       <c r="A344" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="345" spans="1:4">
+      <c r="B344" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
       <c r="A345" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="346" spans="1:4">
+      <c r="B345" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
       <c r="A346" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="347" spans="1:4">
+      <c r="B346" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
       <c r="A347" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="348" spans="1:4">
+      <c r="B347" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
       <c r="A348" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="349" spans="1:4">
+      <c r="B348" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
       <c r="A349" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="350" spans="1:4">
+      <c r="B349" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
       <c r="A350" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="351" spans="1:4">
+      <c r="B350" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
       <c r="A351" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="352" spans="1:4">
+      <c r="B351" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
       <c r="A352" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="353" spans="1:4">
+      <c r="B352" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
       <c r="A353" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="B353" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
       <c r="A354" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="355" spans="1:4">
+      <c r="B354" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
       <c r="A355" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="356" spans="1:4">
+      <c r="B355" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
       <c r="A356" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="357" spans="1:4">
+      <c r="B356" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
       <c r="A357" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="358" spans="1:4">
+      <c r="B357" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
       <c r="A358" t="s">
         <v>358</v>
       </c>
-      <c r="C358" t="s">
+      <c r="B358" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
         <v>359</v>
       </c>
-      <c r="D358" t="s">
+      <c r="B359" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="A359" t="s">
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="360" spans="1:4">
-      <c r="A360" t="s">
+      <c r="B360" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="361" spans="1:4">
-      <c r="A361" t="s">
+      <c r="B361" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
         <v>362</v>
       </c>
-      <c r="D361" t="s">
+      <c r="B362" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="362" spans="1:4">
-      <c r="A362" t="s">
+      <c r="B363" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="363" spans="1:4">
-      <c r="A363" t="s">
+      <c r="B364" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="A364" t="s">
+      <c r="B365" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="365" spans="1:4">
-      <c r="A365" t="s">
+      <c r="B366" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
         <v>367</v>
       </c>
-      <c r="C365" t="s">
+      <c r="B367" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
         <v>368</v>
       </c>
-      <c r="D365" t="s">
+      <c r="B368" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
-      <c r="A366" t="s">
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="A367" t="s">
+      <c r="B369" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" t="s">
+      <c r="B370" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" t="s">
+      <c r="B371" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" t="s">
+      <c r="B372" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" t="s">
+      <c r="B373" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" t="s">
+      <c r="B374" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" t="s">
+      <c r="B375" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" t="s">
+      <c r="B376" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" t="s">
+      <c r="B377" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" t="s">
+      <c r="B378" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" t="s">
+      <c r="B379" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" t="s">
+      <c r="B380" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" t="s">
+      <c r="B381" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" t="s">
+      <c r="B382" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" t="s">
+      <c r="B383" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" t="s">
+      <c r="B384" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" t="s">
+      <c r="B385" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" t="s">
+      <c r="B386" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
-      <c r="A385" t="s">
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" t="s">
+      <c r="B387" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" t="s">
+      <c r="B388" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" t="s">
+      <c r="B389" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
-      <c r="A389" t="s">
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" t="s">
+      <c r="B390" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
         <v>393</v>
       </c>
-      <c r="D390" t="s">
+      <c r="B391" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="A391" t="s">
+      <c r="B392" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
         <v>395</v>
       </c>
-      <c r="D391" t="s">
+      <c r="B393" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
-      <c r="A392" t="s">
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
         <v>397</v>
       </c>
-      <c r="D392" t="s">
+      <c r="B394" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="393" spans="1:4">
-      <c r="A393" t="s">
+      <c r="B395" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
         <v>399</v>
       </c>
-      <c r="D393" t="s">
+      <c r="B396" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="394" spans="1:4">
-      <c r="A394" t="s">
+      <c r="B397" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
         <v>401</v>
       </c>
-      <c r="D394" t="s">
+      <c r="B398" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
-      <c r="A395" t="s">
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
         <v>402</v>
       </c>
-      <c r="D395" t="s">
+      <c r="B399" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
-      <c r="A396" t="s">
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
         <v>403</v>
       </c>
-      <c r="D396" t="s">
+      <c r="B400" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
-      <c r="A397" t="s">
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
         <v>404</v>
       </c>
-      <c r="D397" t="s">
+      <c r="B401" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
-      <c r="A398" t="s">
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
         <v>405</v>
       </c>
-      <c r="D398" t="s">
+      <c r="B402" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
-      <c r="A399" t="s">
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
         <v>406</v>
       </c>
-      <c r="D399" t="s">
+      <c r="B403" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
-      <c r="A400" t="s">
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
         <v>407</v>
       </c>
-      <c r="D400" t="s">
+      <c r="B404" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
-      <c r="A401" t="s">
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
         <v>408</v>
       </c>
-      <c r="D401" t="s">
+      <c r="B405" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="402" spans="1:4">
-      <c r="A402" t="s">
+      <c r="B406" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
         <v>410</v>
       </c>
-      <c r="D402" t="s">
+      <c r="B407" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
-      <c r="A403" t="s">
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
         <v>411</v>
       </c>
-      <c r="D403" t="s">
+      <c r="B408" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
-      <c r="A404" t="s">
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
         <v>412</v>
       </c>
-      <c r="D404" t="s">
+      <c r="B409" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
-      <c r="A405" t="s">
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
         <v>413</v>
       </c>
-      <c r="D405" t="s">
+      <c r="B410" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
-      <c r="A406" t="s">
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
         <v>414</v>
       </c>
-      <c r="D406" t="s">
+      <c r="B411" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="407" spans="1:4">
-      <c r="A407" t="s">
+      <c r="B412" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
         <v>416</v>
       </c>
-      <c r="D407" t="s">
+      <c r="B413" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
-      <c r="A408" t="s">
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
         <v>417</v>
       </c>
-      <c r="D408" t="s">
+      <c r="B414" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" t="s">
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
         <v>418</v>
       </c>
-      <c r="D409" t="s">
+      <c r="B415" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
-      <c r="A410" t="s">
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
         <v>419</v>
       </c>
-      <c r="D410" t="s">
+      <c r="B416" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="411" spans="1:4">
-      <c r="A411" t="s">
+      <c r="B417" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
         <v>421</v>
       </c>
-      <c r="D411" t="s">
+      <c r="B418" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
-      <c r="A412" t="s">
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
         <v>423</v>
       </c>
-      <c r="D412" t="s">
+      <c r="B419" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
-      <c r="A413" t="s">
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="414" spans="1:4">
-      <c r="A414" t="s">
+      <c r="B420" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
-      <c r="A415" t="s">
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
         <v>427</v>
       </c>
-      <c r="D415" t="s">
+      <c r="B421" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
-      <c r="A416" t="s">
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
         <v>429</v>
       </c>
-      <c r="D416" t="s">
+      <c r="B422" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="A417" t="s">
+      <c r="B423" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
         <v>431</v>
       </c>
-      <c r="D417" t="s">
+      <c r="B424" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
-      <c r="A418" t="s">
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
         <v>433</v>
       </c>
-      <c r="D418" t="s">
+      <c r="B425" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="A419" t="s">
+      <c r="B426" t="s">
         <v>435</v>
       </c>
-      <c r="D419" t="s">
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="420" spans="1:4">
-      <c r="A420" t="s">
+      <c r="B427" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
         <v>437</v>
       </c>
-      <c r="D420" t="s">
+      <c r="B428" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
-      <c r="A421" t="s">
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
         <v>439</v>
       </c>
-      <c r="D421" t="s">
+      <c r="B429" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
-      <c r="A422" t="s">
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
         <v>441</v>
       </c>
-      <c r="D422" t="s">
+      <c r="B430" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="423" spans="1:4">
-      <c r="A423" t="s">
+      <c r="B431" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="424" spans="1:4">
-      <c r="A424" t="s">
+      <c r="B432" t="s">
         <v>444</v>
       </c>
-      <c r="D424" t="s">
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" t="s">
+      <c r="B433" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
-      <c r="A426" t="s">
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="A427" t="s">
+      <c r="B434" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
-      <c r="A428" t="s">
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="429" spans="1:4">
-      <c r="A429" t="s">
+      <c r="B435" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
-      <c r="A430" t="s">
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="A431" t="s">
+      <c r="B436" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
-      <c r="A432" t="s">
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="433" spans="1:4">
-      <c r="A433" t="s">
+      <c r="B437" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="434" spans="1:4">
-      <c r="A434" t="s">
+      <c r="B438" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
-      <c r="A435" t="s">
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="436" spans="1:4">
-      <c r="A436" t="s">
+      <c r="B439" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
-      <c r="A437" t="s">
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="A438" t="s">
+      <c r="B440" t="s">
         <v>459</v>
       </c>
-      <c r="D438" t="s">
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" t="s">
+      <c r="B441" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
         <v>461</v>
       </c>
-      <c r="D439" t="s">
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
-      <c r="A440" t="s">
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="441" spans="1:4">
-      <c r="A441" t="s">
+      <c r="B444" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="A442" t="s">
+      <c r="B445" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
-      <c r="A443" t="s">
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="444" spans="1:4">
-      <c r="A444" t="s">
+      <c r="B446" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
-      <c r="A445" t="s">
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="446" spans="1:4">
-      <c r="A446" t="s">
+      <c r="B447" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
-      <c r="A447" t="s">
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="448" spans="1:4">
-      <c r="A448" t="s">
+      <c r="B448" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:2">
       <c r="A449" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="450" spans="1:4">
+      <c r="B449" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4">
+        <v>474</v>
+      </c>
+      <c r="B450" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
+        <v>476</v>
+      </c>
+      <c r="B451" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
+        <v>478</v>
+      </c>
+      <c r="B452" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
+        <v>480</v>
+      </c>
+      <c r="B453" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
+        <v>481</v>
+      </c>
+      <c r="B454" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
+        <v>483</v>
+      </c>
+      <c r="B455" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4">
+        <v>484</v>
+      </c>
+      <c r="B456" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
+        <v>485</v>
+      </c>
+      <c r="B457" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
+        <v>486</v>
+      </c>
+      <c r="B458" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
+        <v>487</v>
+      </c>
+      <c r="B459" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
+        <v>488</v>
+      </c>
+      <c r="B460" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
+        <v>489</v>
+      </c>
+      <c r="B461" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
+        <v>490</v>
+      </c>
+      <c r="B462" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
+        <v>491</v>
+      </c>
+      <c r="B463" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
+        <v>492</v>
+      </c>
+      <c r="B464" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4">
+        <v>493</v>
+      </c>
+      <c r="B465" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
+        <v>494</v>
+      </c>
+      <c r="B466" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4">
+        <v>495</v>
+      </c>
+      <c r="B467" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
+        <v>496</v>
+      </c>
+      <c r="B468" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
+        <v>498</v>
+      </c>
+      <c r="B469" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4">
+        <v>500</v>
+      </c>
+      <c r="B470" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
+        <v>501</v>
+      </c>
+      <c r="B471" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
+        <v>502</v>
+      </c>
+      <c r="B472" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
+        <v>503</v>
+      </c>
+      <c r="B473" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4">
+        <v>504</v>
+      </c>
+      <c r="B474" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4">
+        <v>505</v>
+      </c>
+      <c r="B475" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
+        <v>506</v>
+      </c>
+      <c r="B476" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
+        <v>507</v>
+      </c>
+      <c r="B477" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4">
+        <v>508</v>
+      </c>
+      <c r="B478" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
+        <v>509</v>
+      </c>
+      <c r="B479" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
+        <v>510</v>
+      </c>
+      <c r="B480" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4">
+        <v>511</v>
+      </c>
+      <c r="B481" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4">
+        <v>512</v>
+      </c>
+      <c r="B482" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4">
+        <v>513</v>
+      </c>
+      <c r="B483" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4">
+        <v>514</v>
+      </c>
+      <c r="B484" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4">
+        <v>515</v>
+      </c>
+      <c r="B485" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
+        <v>516</v>
+      </c>
+      <c r="B486" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
+        <v>517</v>
+      </c>
+      <c r="B487" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
+        <v>518</v>
+      </c>
+      <c r="B488" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
+        <v>519</v>
+      </c>
+      <c r="B489" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
+        <v>520</v>
+      </c>
+      <c r="B490" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
+        <v>521</v>
+      </c>
+      <c r="B491" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
+        <v>522</v>
+      </c>
+      <c r="B492" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
+        <v>523</v>
+      </c>
+      <c r="B493" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
+        <v>524</v>
+      </c>
+      <c r="B494" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
+        <v>525</v>
+      </c>
+      <c r="B495" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4">
+        <v>526</v>
+      </c>
+      <c r="B496" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
+        <v>527</v>
+      </c>
+      <c r="B497" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
+        <v>528</v>
+      </c>
+      <c r="B498" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4">
+        <v>529</v>
+      </c>
+      <c r="B499" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4">
+        <v>530</v>
+      </c>
+      <c r="B500" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4">
+        <v>531</v>
+      </c>
+      <c r="B501" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4">
+        <v>532</v>
+      </c>
+      <c r="B502" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4">
+        <v>533</v>
+      </c>
+      <c r="B503" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4">
+        <v>534</v>
+      </c>
+      <c r="B504" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
+        <v>535</v>
+      </c>
+      <c r="B505" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4">
+        <v>536</v>
+      </c>
+      <c r="B506" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4">
+        <v>537</v>
+      </c>
+      <c r="B507" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4">
+        <v>538</v>
+      </c>
+      <c r="B508" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4">
+        <v>539</v>
+      </c>
+      <c r="B509" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4">
+        <v>540</v>
+      </c>
+      <c r="B510" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4">
+        <v>541</v>
+      </c>
+      <c r="B511" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4">
+        <v>542</v>
+      </c>
+      <c r="B512" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4">
+        <v>544</v>
+      </c>
+      <c r="B513" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4">
+        <v>545</v>
+      </c>
+      <c r="B514" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4">
+        <v>546</v>
+      </c>
+      <c r="B515" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4">
+        <v>547</v>
+      </c>
+      <c r="B516" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4">
+        <v>548</v>
+      </c>
+      <c r="B517" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4">
+        <v>549</v>
+      </c>
+      <c r="B518" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4">
+        <v>550</v>
+      </c>
+      <c r="B519" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4">
+        <v>551</v>
+      </c>
+      <c r="B520" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4">
+        <v>552</v>
+      </c>
+      <c r="B521" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4">
+        <v>553</v>
+      </c>
+      <c r="B522" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4">
+        <v>554</v>
+      </c>
+      <c r="B523" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4">
+        <v>555</v>
+      </c>
+      <c r="B524" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4">
+        <v>556</v>
+      </c>
+      <c r="B525" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4">
+        <v>557</v>
+      </c>
+      <c r="B526" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4">
+        <v>558</v>
+      </c>
+      <c r="B527" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4">
+        <v>559</v>
+      </c>
+      <c r="B528" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4">
+        <v>560</v>
+      </c>
+      <c r="B529" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4">
+        <v>561</v>
+      </c>
+      <c r="B530" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4">
+        <v>562</v>
+      </c>
+      <c r="B531" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>555</v>
+        <v>563</v>
+      </c>
+      <c r="B532" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" t="s">
+        <v>564</v>
+      </c>
+      <c r="B533" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" t="s">
+        <v>565</v>
+      </c>
+      <c r="B534" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" t="s">
+        <v>566</v>
+      </c>
+      <c r="B535" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" t="s">
+        <v>567</v>
+      </c>
+      <c r="B536" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" t="s">
+        <v>568</v>
+      </c>
+      <c r="B537" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" t="s">
+        <v>569</v>
+      </c>
+      <c r="B538" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" t="s">
+        <v>570</v>
+      </c>
+      <c r="B539" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" t="s">
+        <v>571</v>
+      </c>
+      <c r="B540" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" t="s">
+        <v>572</v>
+      </c>
+      <c r="B541" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" t="s">
+        <v>573</v>
+      </c>
+      <c r="B542" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" t="s">
+        <v>574</v>
+      </c>
+      <c r="B543" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" t="s">
+        <v>575</v>
+      </c>
+      <c r="B544" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" t="s">
+        <v>576</v>
+      </c>
+      <c r="B545" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>628</v>
+      </c>
+      <c r="B597" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>629</v>
+      </c>
+      <c r="B598" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>630</v>
+      </c>
+      <c r="B599" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" t="s">
+        <v>631</v>
+      </c>
+      <c r="B600" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" t="s">
+        <v>632</v>
+      </c>
+      <c r="B601" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" t="s">
+        <v>633</v>
+      </c>
+      <c r="B602" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" t="s">
+        <v>634</v>
+      </c>
+      <c r="B603" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" t="s">
+        <v>635</v>
+      </c>
+      <c r="B604" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" t="s">
+        <v>636</v>
+      </c>
+      <c r="B605" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" t="s">
+        <v>637</v>
+      </c>
+      <c r="B606" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" t="s">
+        <v>638</v>
+      </c>
+      <c r="B607" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" t="s">
+        <v>639</v>
+      </c>
+      <c r="B608" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" t="s">
+        <v>640</v>
+      </c>
+      <c r="B609" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" t="s">
+        <v>641</v>
+      </c>
+      <c r="B610" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" t="s">
+        <v>642</v>
+      </c>
+      <c r="B611" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" t="s">
+        <v>643</v>
+      </c>
+      <c r="B612" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" t="s">
+        <v>644</v>
+      </c>
+      <c r="B613" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/data/Troops.xlsx
+++ b/data/Troops.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4A65F9-F870-4EE2-862E-99F736FDA977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="714">
   <si>
     <t>ルナ初戦ボッコテスト</t>
   </si>
@@ -2481,21 +2486,308 @@
 Qキー　　 ：自動文字送り　ON/OFF切替　　
 Ctlrキー  ：メッセージスキップ</t>
   </si>
+  <si>
+    <t>You were lifted up...!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're getting turned on even though you're
+about to be eaten? Hmmm...♥
+Are you enjoying this? Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You know if you don't escape, you'll be eaten, right?
+Ahahaha♥</t>
+  </si>
+  <si>
+    <t>I've gotta get out of this mess somehow...!</t>
+  </si>
+  <si>
+    <t>Start battle</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>0:Breath 1:Licking 2:Sucking 3:Munch munch</t>
+  </si>
+  <si>
+    <t>Normal skills may not be used during shrunken battles.
+Special skills are available.</t>
+  </si>
+  <si>
+    <t>Using 『Rampage』, 『Screaming』, and 『Struggling』,
+you can damage your opponent, and free yourself.
+If energy reaches 0, you'll ejaculate and be defeated.</t>
+  </si>
+  <si>
+    <t>The enemy's actions will grow more intense as
+the turns progress, as so:
+Breathing→Licking→Sucking→Put in mouth</t>
+  </si>
+  <si>
+    <t>By using \C[14]『Struggle』\C[0], you can reverse
+your enemy's action by one stage.</t>
+  </si>
+  <si>
+    <t>\C[14]『Rampage』\C[0]： Deals damage
+\C[14]『Scream』\C[0]：Damage + Lower attack
+\C[14]『Struggle』\C[0]：Damage + Reverse enemy actions</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You don't want to be eaten like this, do you?
+Struggle with all your might!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Are you done struggling?
+Then, may I eat you now?
+Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Your body is so tiny, like a doll♥
+Hoora♥ Have a puff of succubus breath♥
+Haaaah～～...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Let's have a taste♥
+Lick...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'll give your whole body a blowjob♥
+I wonder if you can endure.
+Sluuuuurp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You haven't escaped yet?
+Then I'll have you squirt inside my mouth♥
+Ahhhhn♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Just behave yourself.
+Your struggles are all for nothing.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;F-fine.
+Enough, enough!</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>0:Pound 1:Cowgirl 2:Grind</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaha♥
+You and I are gonna fuck♥
+I'll make you regret coming here.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Wait...!
+No, wait...!!
+Wh-what's... Why...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Aaaaaahhh!!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hah... Hahh...
+Keep it coming♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're just like the male orcs♥
+The moment you see my ass, all you can think about
+is shooting your sperm inside it♥ Ahahaha!!</t>
+  </si>
+  <si>
+    <t>Scattered the Tiger's Silver Vine!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Myaoooow!
+Is that my silver vine!?
+Ahhn♥ Ahhn♥ Don't use that without permission!</t>
+  </si>
+  <si>
+    <t>Tiger got high!
+Tiger's stats have all plummeted!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhhhh...!
+Meoooow♥
+Oh nooo♥ Oh you♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Let's fuck♥ Let's fuck♥
+Kukuku♥ Get ready.
+Hehehehehe♥</t>
+  </si>
+  <si>
+    <t>0:Tit fuck 1: Squeezing 2: Licking</t>
+  </si>
+  <si>
+    <t>You've been pinned down!
+This isn't good... It might be best to run away...!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I was soooo hungry!
+I'm gonna eat so much!
+Better not resist. Roar!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hah... Hah...♥
+J-just hold on...!
+It feels so good...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Myaaaaaaoooowww...!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Meoooww...!
+What the? What did you...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You've already stopped resisting. Weakling.
+Aaahhhh...
+Weak prey just doesn't quite taste the same.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Fufu♥ You look quite delicious♥
+I wonder how you'll taste♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahn, ahn, ahn...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Aaaahhhhh, cumming!!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What that...!
+Who do you think you are...!</t>
+  </si>
+  <si>
+    <t>0: Paizuri 1:Alternating Paizuri 2: Puff Puff</t>
+  </si>
+  <si>
+    <t>0: Blowjob 1: Licking 2: Cock kiss</t>
+  </si>
+  <si>
+    <t>Chocolat</t>
+  </si>
+  <si>
+    <t>0:Face licking 1:Kissing handjob 2:French kiss 3:Hole torture</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;So when provided stimulation, the penis will spit
+out semen? I'm going to squeeze some out either way♥
+Don't try to resist♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Kuheehee♥ It's already twitching♥
+Getting excited and swelling up for your enemy,
+I'd expect no less from you, hunter♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Uwah...! I'm gonna cum...!!
+But...
+I absolutely... Need to endure...!!!)</t>
+  </si>
+  <si>
+    <t>No way...!
+I can't afford to lose this...!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhhhhnnn...♥
+I-I'm cumming again...!!
+I'm gonna lose...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahn, ahn,ahn, ahn!!
+S-something's coming♥
+Something incredible is coming...♥♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Aaaaahhhhhhhhhhnnn♥♥♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Haaah...♥
+F-Feels so good...♥
+Make me cum again♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Haaahh...♥
+S-so good...♥
+Something is slowly... Rising up...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh my, I never would have expected this.
+I can't believe you'd come all this way just to surrender.
+Sometimes humans go way over my head♥ Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhh～? Were you just about to cum?
+Tee hee♥
+Are you really that excited?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;This is my thanks to you.
+So just relax...♥
+Leave everything to me♥</t>
+  </si>
+  <si>
+    <t>Witch Lamia</t>
+  </si>
+  <si>
+    <t>Mantis</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Mmm...♥ Smooch♥
+Sex would drain your energy...
+But my hand...♥ Smooch♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Are you exhausted from being crushed?
+Even though your penis is still twitching?
+Ahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh my, you've stopped resisting.
+You know once you give up, you're being eaten.
+Is that really fine with you? Fufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nnn...!!
+Cut that out...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I... I'm cumming...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhhhnnn!!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What a cute little lady♥
+I wonder how you taste♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What a cute young man♥
+I really want to eat you♥
+Hee♥</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2503,28 +2795,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2814,19 +3122,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B613"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C613"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A587" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C596" sqref="C596"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2834,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2842,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2850,7 +3160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2858,7 +3168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2866,7 +3176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +3184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2882,7 +3192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +3200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2898,7 +3208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2906,7 +3216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2914,7 +3224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2922,7 +3232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2930,7 +3240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2938,7 +3248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2946,7 +3256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2954,7 +3264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2962,7 +3272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2970,7 +3280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2978,7 +3288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2986,7 +3296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2994,7 +3304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3002,7 +3312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3010,7 +3320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3018,7 +3328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3026,7 +3336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3034,7 +3344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3042,7 +3352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3050,7 +3360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3058,7 +3368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3066,7 +3376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3074,7 +3384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3082,7 +3392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3090,7 +3400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3098,7 +3408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3106,7 +3416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3114,7 +3424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3122,7 +3432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3130,7 +3440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3138,7 +3448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3146,7 +3456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3154,7 +3464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3162,7 +3472,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3170,7 +3480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3178,7 +3488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3186,7 +3496,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3194,7 +3504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3202,7 +3512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3210,7 +3520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3218,7 +3528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3226,7 +3536,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3234,7 +3544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3242,7 +3552,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3250,7 +3560,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3258,7 +3568,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3266,7 +3576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3274,7 +3584,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3282,7 +3592,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3290,7 +3600,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3298,7 +3608,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3306,7 +3616,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3314,7 +3624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3322,7 +3632,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3330,7 +3640,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3338,7 +3648,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3346,7 +3656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3354,7 +3664,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3362,7 +3672,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3370,7 +3680,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3378,7 +3688,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3386,7 +3696,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3394,7 +3704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3402,7 +3712,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3410,7 +3720,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3418,7 +3728,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3426,7 +3736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3434,7 +3744,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3442,7 +3752,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3450,7 +3760,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3458,7 +3768,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3466,7 +3776,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3474,7 +3784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3482,7 +3792,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3490,7 +3800,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3498,7 +3808,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3506,7 +3816,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3514,7 +3824,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3522,7 +3832,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3530,7 +3840,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3538,7 +3848,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3546,7 +3856,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3554,7 +3864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3562,7 +3872,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3570,7 +3880,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3578,7 +3888,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3586,7 +3896,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3594,7 +3904,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3602,7 +3912,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3610,7 +3920,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3618,7 +3928,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3626,7 +3936,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3634,7 +3944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3642,7 +3952,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3650,7 +3960,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3658,7 +3968,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3666,7 +3976,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3674,7 +3984,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3682,7 +3992,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3690,7 +4000,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3698,7 +4008,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3706,7 +4016,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3714,12 +4024,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3727,7 +4037,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3735,7 +4045,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3743,7 +4053,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3751,7 +4061,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3759,7 +4069,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3767,7 +4077,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -3775,7 +4085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3783,7 +4093,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3791,107 +4101,116 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3899,7 +4218,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3907,7 +4226,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3915,12 +4234,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3928,7 +4247,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3936,7 +4255,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3944,7 +4263,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3952,7 +4271,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3960,7 +4279,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3968,7 +4287,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3976,7 +4295,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3984,7 +4303,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3992,7 +4311,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4000,7 +4319,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4008,7 +4327,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4016,7 +4335,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4024,7 +4343,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4032,7 +4351,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4040,7 +4359,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4048,22 +4367,22 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4071,7 +4390,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4079,7 +4398,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4087,7 +4406,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4095,7 +4414,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4103,7 +4422,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4111,7 +4430,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4119,7 +4438,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4127,7 +4446,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4135,7 +4454,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4143,7 +4462,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4151,7 +4470,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4159,7 +4478,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4167,7 +4486,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4175,7 +4494,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4183,7 +4502,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4191,7 +4510,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4199,7 +4518,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4207,7 +4526,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4215,7 +4534,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4223,7 +4542,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4231,7 +4550,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -4239,7 +4558,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -4247,7 +4566,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -4255,7 +4574,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -4263,12 +4582,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -4276,7 +4595,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -4284,7 +4603,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -4292,7 +4611,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -4300,7 +4619,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -4308,7 +4627,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -4316,7 +4635,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -4324,7 +4643,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -4332,7 +4651,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -4340,7 +4659,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -4348,7 +4667,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -4356,7 +4675,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -4364,7 +4683,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -4372,7 +4691,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -4380,7 +4699,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -4388,7 +4707,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -4396,7 +4715,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -4404,7 +4723,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -4412,7 +4731,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -4420,7 +4739,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -4428,7 +4747,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -4436,7 +4755,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -4444,7 +4763,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -4452,7 +4771,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4460,7 +4779,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -4468,7 +4787,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4476,7 +4795,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -4484,7 +4803,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -4492,7 +4811,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -4500,7 +4819,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -4508,7 +4827,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -4516,12 +4835,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -4529,7 +4848,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -4537,7 +4856,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -4545,7 +4864,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -4553,7 +4872,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -4561,7 +4880,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -4569,7 +4888,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -4577,7 +4896,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -4585,7 +4904,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -4593,7 +4912,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -4601,7 +4920,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -4609,7 +4928,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -4617,7 +4936,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -4625,7 +4944,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -4633,7 +4952,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -4641,7 +4960,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -4649,7 +4968,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -4657,7 +4976,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -4665,7 +4984,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -4673,7 +4992,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -4681,7 +5000,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -4689,7 +5008,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -4697,7 +5016,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -4705,7 +5024,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -4713,7 +5032,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -4721,12 +5040,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -4734,7 +5053,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -4742,7 +5061,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -4750,7 +5069,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -4758,7 +5077,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -4766,7 +5085,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -4774,7 +5093,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -4782,7 +5101,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -4790,7 +5109,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -4798,7 +5117,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -4806,7 +5125,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -4814,7 +5133,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -4822,7 +5141,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -4830,7 +5149,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -4838,7 +5157,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -4846,7 +5165,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -4854,7 +5173,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -4862,7 +5181,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -4870,7 +5189,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -4878,7 +5197,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -4886,7 +5205,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -4894,7 +5213,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -4902,7 +5221,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -4910,7 +5229,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -4918,7 +5237,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -4926,7 +5245,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -4934,7 +5253,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -4942,7 +5261,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -4950,7 +5269,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -4958,7 +5277,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -4966,7 +5285,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -4974,7 +5293,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -4982,7 +5301,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -4990,7 +5309,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -4998,7 +5317,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -5006,7 +5325,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -5014,7 +5333,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -5022,7 +5341,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -5030,7 +5349,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -5038,7 +5357,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -5046,7 +5365,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -5054,7 +5373,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>290</v>
       </c>
@@ -5062,7 +5381,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -5070,7 +5389,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>292</v>
       </c>
@@ -5078,7 +5397,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>293</v>
       </c>
@@ -5086,7 +5405,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -5094,7 +5413,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -5102,7 +5421,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -5110,7 +5429,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -5118,7 +5437,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -5126,7 +5445,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>299</v>
       </c>
@@ -5134,7 +5453,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>300</v>
       </c>
@@ -5142,7 +5461,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -5150,7 +5469,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -5158,7 +5477,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>303</v>
       </c>
@@ -5166,7 +5485,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>304</v>
       </c>
@@ -5174,7 +5493,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>305</v>
       </c>
@@ -5182,7 +5501,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -5190,7 +5509,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>307</v>
       </c>
@@ -5198,7 +5517,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>308</v>
       </c>
@@ -5206,7 +5525,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>309</v>
       </c>
@@ -5214,7 +5533,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -5222,7 +5541,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>311</v>
       </c>
@@ -5230,7 +5549,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>312</v>
       </c>
@@ -5238,7 +5557,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>313</v>
       </c>
@@ -5246,7 +5565,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>314</v>
       </c>
@@ -5254,7 +5573,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>315</v>
       </c>
@@ -5262,7 +5581,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>316</v>
       </c>
@@ -5270,7 +5589,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>317</v>
       </c>
@@ -5278,7 +5597,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>318</v>
       </c>
@@ -5286,7 +5605,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>319</v>
       </c>
@@ -5294,7 +5613,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>320</v>
       </c>
@@ -5302,7 +5621,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>321</v>
       </c>
@@ -5310,7 +5629,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>322</v>
       </c>
@@ -5318,7 +5637,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>323</v>
       </c>
@@ -5326,7 +5645,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>324</v>
       </c>
@@ -5334,7 +5653,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>325</v>
       </c>
@@ -5342,7 +5661,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>326</v>
       </c>
@@ -5350,7 +5669,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>327</v>
       </c>
@@ -5358,7 +5677,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>328</v>
       </c>
@@ -5366,7 +5685,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>329</v>
       </c>
@@ -5374,7 +5693,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>330</v>
       </c>
@@ -5382,7 +5701,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>331</v>
       </c>
@@ -5390,7 +5709,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>332</v>
       </c>
@@ -5398,7 +5717,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -5406,7 +5725,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>334</v>
       </c>
@@ -5414,7 +5733,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>335</v>
       </c>
@@ -5422,7 +5741,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>336</v>
       </c>
@@ -5430,7 +5749,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>337</v>
       </c>
@@ -5438,7 +5757,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -5446,7 +5765,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>339</v>
       </c>
@@ -5454,7 +5773,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>340</v>
       </c>
@@ -5462,7 +5781,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -5470,7 +5789,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>342</v>
       </c>
@@ -5478,7 +5797,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>343</v>
       </c>
@@ -5486,7 +5805,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>344</v>
       </c>
@@ -5494,7 +5813,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>345</v>
       </c>
@@ -5502,7 +5821,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>346</v>
       </c>
@@ -5510,7 +5829,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>347</v>
       </c>
@@ -5518,7 +5837,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>348</v>
       </c>
@@ -5526,7 +5845,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>349</v>
       </c>
@@ -5534,7 +5853,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>350</v>
       </c>
@@ -5542,7 +5861,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>351</v>
       </c>
@@ -5550,7 +5869,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>352</v>
       </c>
@@ -5558,7 +5877,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>353</v>
       </c>
@@ -5566,7 +5885,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>354</v>
       </c>
@@ -5574,7 +5893,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>355</v>
       </c>
@@ -5582,7 +5901,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>356</v>
       </c>
@@ -5590,7 +5909,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>357</v>
       </c>
@@ -5598,7 +5917,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>358</v>
       </c>
@@ -5606,7 +5925,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>359</v>
       </c>
@@ -5614,7 +5933,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>360</v>
       </c>
@@ -5622,7 +5941,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>361</v>
       </c>
@@ -5630,7 +5949,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>362</v>
       </c>
@@ -5638,7 +5957,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>363</v>
       </c>
@@ -5646,7 +5965,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>364</v>
       </c>
@@ -5654,7 +5973,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>365</v>
       </c>
@@ -5662,7 +5981,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>366</v>
       </c>
@@ -5670,7 +5989,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>367</v>
       </c>
@@ -5678,7 +5997,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>368</v>
       </c>
@@ -5686,7 +6005,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>369</v>
       </c>
@@ -5694,7 +6013,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>370</v>
       </c>
@@ -5702,7 +6021,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>371</v>
       </c>
@@ -5710,7 +6029,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>372</v>
       </c>
@@ -5718,7 +6037,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>373</v>
       </c>
@@ -5726,7 +6045,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>374</v>
       </c>
@@ -5734,7 +6053,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>375</v>
       </c>
@@ -5742,7 +6061,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>376</v>
       </c>
@@ -5750,7 +6069,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>377</v>
       </c>
@@ -5758,7 +6077,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>378</v>
       </c>
@@ -5766,7 +6085,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>379</v>
       </c>
@@ -5774,7 +6093,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>380</v>
       </c>
@@ -5782,7 +6101,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>381</v>
       </c>
@@ -5790,7 +6109,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>382</v>
       </c>
@@ -5798,7 +6117,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>383</v>
       </c>
@@ -5806,7 +6125,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>384</v>
       </c>
@@ -5814,7 +6133,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>385</v>
       </c>
@@ -5822,7 +6141,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>386</v>
       </c>
@@ -5830,7 +6149,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>388</v>
       </c>
@@ -5838,7 +6157,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>389</v>
       </c>
@@ -5846,7 +6165,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>390</v>
       </c>
@@ -5854,7 +6173,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>392</v>
       </c>
@@ -5862,7 +6181,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>393</v>
       </c>
@@ -5870,7 +6189,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>394</v>
       </c>
@@ -5878,7 +6197,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>395</v>
       </c>
@@ -5886,7 +6205,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>397</v>
       </c>
@@ -5894,7 +6213,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>398</v>
       </c>
@@ -5902,7 +6221,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>399</v>
       </c>
@@ -5910,7 +6229,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>400</v>
       </c>
@@ -5918,7 +6237,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>401</v>
       </c>
@@ -5926,7 +6245,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>402</v>
       </c>
@@ -5934,7 +6253,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>403</v>
       </c>
@@ -5942,7 +6261,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>404</v>
       </c>
@@ -5950,7 +6269,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>405</v>
       </c>
@@ -5958,7 +6277,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>406</v>
       </c>
@@ -5966,7 +6285,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>407</v>
       </c>
@@ -5974,7 +6293,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>408</v>
       </c>
@@ -5982,7 +6301,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>409</v>
       </c>
@@ -5990,7 +6309,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>410</v>
       </c>
@@ -5998,7 +6317,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>411</v>
       </c>
@@ -6006,7 +6325,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>412</v>
       </c>
@@ -6014,7 +6333,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>413</v>
       </c>
@@ -6022,7 +6341,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>414</v>
       </c>
@@ -6030,7 +6349,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>415</v>
       </c>
@@ -6038,7 +6357,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>416</v>
       </c>
@@ -6046,7 +6365,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>417</v>
       </c>
@@ -6054,7 +6373,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>418</v>
       </c>
@@ -6062,7 +6381,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>419</v>
       </c>
@@ -6070,7 +6389,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>420</v>
       </c>
@@ -6078,7 +6397,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>421</v>
       </c>
@@ -6086,7 +6405,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>423</v>
       </c>
@@ -6094,7 +6413,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>425</v>
       </c>
@@ -6102,7 +6421,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>427</v>
       </c>
@@ -6110,7 +6429,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>429</v>
       </c>
@@ -6118,7 +6437,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>430</v>
       </c>
@@ -6126,7 +6445,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>431</v>
       </c>
@@ -6134,7 +6453,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>433</v>
       </c>
@@ -6142,7 +6461,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>434</v>
       </c>
@@ -6150,7 +6469,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>436</v>
       </c>
@@ -6158,7 +6477,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>437</v>
       </c>
@@ -6166,7 +6485,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>439</v>
       </c>
@@ -6174,7 +6493,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>441</v>
       </c>
@@ -6182,7 +6501,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>442</v>
       </c>
@@ -6190,7 +6509,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>443</v>
       </c>
@@ -6198,7 +6517,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>445</v>
       </c>
@@ -6206,7 +6525,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>447</v>
       </c>
@@ -6214,7 +6533,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>449</v>
       </c>
@@ -6222,7 +6541,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>451</v>
       </c>
@@ -6230,7 +6549,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>453</v>
       </c>
@@ -6238,7 +6557,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>454</v>
       </c>
@@ -6246,7 +6565,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>456</v>
       </c>
@@ -6254,7 +6573,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>458</v>
       </c>
@@ -6262,7 +6581,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>460</v>
       </c>
@@ -6270,25 +6589,31 @@
         <v>460</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
-      <c r="A442" t="s">
+    <row r="442" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="443" spans="1:2">
-      <c r="A443" t="s">
+      <c r="C442" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" t="s">
+      <c r="C443" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>464</v>
       </c>
@@ -6296,7 +6621,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>466</v>
       </c>
@@ -6304,7 +6629,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>468</v>
       </c>
@@ -6312,7 +6637,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>470</v>
       </c>
@@ -6320,7 +6645,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>472</v>
       </c>
@@ -6328,7 +6653,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>474</v>
       </c>
@@ -6336,7 +6661,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>476</v>
       </c>
@@ -6344,7 +6669,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>478</v>
       </c>
@@ -6352,7 +6677,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>480</v>
       </c>
@@ -6360,7 +6685,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>481</v>
       </c>
@@ -6368,7 +6693,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>483</v>
       </c>
@@ -6376,7 +6701,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>484</v>
       </c>
@@ -6384,7 +6709,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>485</v>
       </c>
@@ -6392,7 +6717,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>486</v>
       </c>
@@ -6400,7 +6725,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>487</v>
       </c>
@@ -6408,7 +6733,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>488</v>
       </c>
@@ -6416,7 +6741,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>489</v>
       </c>
@@ -6424,7 +6749,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>490</v>
       </c>
@@ -6432,7 +6757,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>491</v>
       </c>
@@ -6440,7 +6765,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>492</v>
       </c>
@@ -6448,7 +6773,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>493</v>
       </c>
@@ -6456,7 +6781,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>494</v>
       </c>
@@ -6464,7 +6789,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>495</v>
       </c>
@@ -6472,7 +6797,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>496</v>
       </c>
@@ -6480,7 +6805,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>498</v>
       </c>
@@ -6488,7 +6813,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>500</v>
       </c>
@@ -6496,7 +6821,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>501</v>
       </c>
@@ -6504,7 +6829,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>502</v>
       </c>
@@ -6512,7 +6837,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>503</v>
       </c>
@@ -6520,7 +6845,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>504</v>
       </c>
@@ -6528,7 +6853,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>505</v>
       </c>
@@ -6536,7 +6861,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>506</v>
       </c>
@@ -6544,7 +6869,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>507</v>
       </c>
@@ -6552,7 +6877,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>508</v>
       </c>
@@ -6560,7 +6885,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>509</v>
       </c>
@@ -6568,7 +6893,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>510</v>
       </c>
@@ -6576,7 +6901,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>511</v>
       </c>
@@ -6584,7 +6909,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>512</v>
       </c>
@@ -6592,7 +6917,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>513</v>
       </c>
@@ -6600,7 +6925,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>514</v>
       </c>
@@ -6608,7 +6933,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>515</v>
       </c>
@@ -6616,7 +6941,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>516</v>
       </c>
@@ -6624,7 +6949,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>517</v>
       </c>
@@ -6632,7 +6957,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>518</v>
       </c>
@@ -6640,7 +6965,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>519</v>
       </c>
@@ -6648,7 +6973,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>520</v>
       </c>
@@ -6656,7 +6981,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>521</v>
       </c>
@@ -6664,7 +6989,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>522</v>
       </c>
@@ -6672,7 +6997,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>523</v>
       </c>
@@ -6680,7 +7005,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>524</v>
       </c>
@@ -6688,7 +7013,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>525</v>
       </c>
@@ -6696,7 +7021,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>526</v>
       </c>
@@ -6704,7 +7029,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>527</v>
       </c>
@@ -6712,7 +7037,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>528</v>
       </c>
@@ -6720,7 +7045,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>529</v>
       </c>
@@ -6728,7 +7053,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>530</v>
       </c>
@@ -6736,7 +7061,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>531</v>
       </c>
@@ -6744,7 +7069,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>532</v>
       </c>
@@ -6752,7 +7077,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>533</v>
       </c>
@@ -6760,7 +7085,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>534</v>
       </c>
@@ -6768,7 +7093,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>535</v>
       </c>
@@ -6776,7 +7101,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>536</v>
       </c>
@@ -6784,7 +7109,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>537</v>
       </c>
@@ -6792,7 +7117,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>538</v>
       </c>
@@ -6800,7 +7125,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>539</v>
       </c>
@@ -6808,7 +7133,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>540</v>
       </c>
@@ -6816,7 +7141,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>541</v>
       </c>
@@ -6824,7 +7149,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>542</v>
       </c>
@@ -6832,7 +7157,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>544</v>
       </c>
@@ -6840,7 +7165,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>545</v>
       </c>
@@ -6848,7 +7173,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>546</v>
       </c>
@@ -6856,7 +7181,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>547</v>
       </c>
@@ -6864,7 +7189,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>548</v>
       </c>
@@ -6872,7 +7197,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>549</v>
       </c>
@@ -6880,7 +7205,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>550</v>
       </c>
@@ -6888,7 +7213,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>551</v>
       </c>
@@ -6896,7 +7221,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>552</v>
       </c>
@@ -6904,7 +7229,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>553</v>
       </c>
@@ -6912,7 +7237,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>554</v>
       </c>
@@ -6920,7 +7245,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>555</v>
       </c>
@@ -6928,7 +7253,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>556</v>
       </c>
@@ -6936,422 +7261,614 @@
         <v>556</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>557</v>
       </c>
       <c r="B526" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="527" spans="1:2">
+      <c r="C526" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>558</v>
       </c>
       <c r="B527" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="528" spans="1:2">
+      <c r="C527" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>559</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="3" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="529" spans="1:2">
+      <c r="C528" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>560</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529" s="3" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="530" spans="1:2">
+      <c r="C529" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>561</v>
       </c>
       <c r="B530" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="531" spans="1:2">
+      <c r="C530" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>562</v>
       </c>
       <c r="B531" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="532" spans="1:2">
+      <c r="C531" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>563</v>
       </c>
       <c r="B532" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="533" spans="1:2">
+      <c r="C532" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>564</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533" s="3" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="534" spans="1:2">
+      <c r="C533" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>565</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B534" s="3" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="535" spans="1:2">
+      <c r="C534" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>566</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535" s="3" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="536" spans="1:2">
+      <c r="C535" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>567</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B536" s="3" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="537" spans="1:2">
+      <c r="C536" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>568</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B537" s="3" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="538" spans="1:2">
+      <c r="C537" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>569</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B538" s="3" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="539" spans="1:2">
-      <c r="A539" t="s">
+      <c r="C538" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B539" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="540" spans="1:2">
+      <c r="C539" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>571</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B540" s="3" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="541" spans="1:2">
+      <c r="C540" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>572</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541" s="3" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="542" spans="1:2">
+      <c r="C541" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>573</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B542" s="3" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="543" spans="1:2">
+      <c r="C542" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>574</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B543" s="3" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="544" spans="1:2">
+      <c r="C543" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>575</v>
       </c>
-      <c r="B544" t="s">
+      <c r="B544" s="3" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="545" spans="1:2">
+      <c r="C544" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>576</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B545" s="3" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="546" spans="1:2">
+      <c r="C545" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="547" spans="1:2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="548" spans="1:2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="550" spans="1:2">
+      <c r="C549" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="551" spans="1:2">
-      <c r="A551" t="s">
+      <c r="C550" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A551" s="3" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="552" spans="1:2">
-      <c r="A552" t="s">
+      <c r="C551" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A552" s="3" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="553" spans="1:2">
-      <c r="A553" t="s">
+      <c r="C552" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A553" s="3" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="554" spans="1:2">
-      <c r="A554" t="s">
+      <c r="C553" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A554" s="3" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="555" spans="1:2">
-      <c r="A555" t="s">
+      <c r="C554" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A555" s="3" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="556" spans="1:2">
-      <c r="A556" t="s">
+      <c r="C555" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A556" s="3" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="557" spans="1:2">
-      <c r="A557" t="s">
+      <c r="C556" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A557" s="3" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="558" spans="1:2">
+      <c r="C557" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="559" spans="1:2">
-      <c r="A559" t="s">
+      <c r="C558" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A559" s="3" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="560" spans="1:2">
-      <c r="A560" t="s">
+      <c r="C559" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A560" s="3" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="561" spans="1:2">
-      <c r="A561" t="s">
+      <c r="C560" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A561" s="3" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="562" spans="1:2">
+      <c r="C561" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="563" spans="1:2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="564" spans="1:2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="566" spans="1:2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="567" spans="1:2">
-      <c r="A567" t="s">
+      <c r="C566" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A567" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="568" spans="1:2">
+      <c r="C567" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="569" spans="1:2">
+      <c r="C568" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="570" spans="1:2">
+      <c r="C569" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="571" spans="1:2">
+      <c r="C570" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="572" spans="1:2">
+      <c r="C571" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="573" spans="1:2">
-      <c r="A573" t="s">
+      <c r="C572" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="574" spans="1:2">
-      <c r="A574" t="s">
+      <c r="C573" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A574" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="575" spans="1:2">
-      <c r="A575" t="s">
+      <c r="C574" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A575" s="2" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="576" spans="1:2">
-      <c r="A576" t="s">
+      <c r="C575" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A576" s="2" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="577" spans="1:2">
-      <c r="A577" t="s">
+      <c r="C576" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A577" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="578" spans="1:2">
-      <c r="A578" t="s">
+      <c r="C577" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="579" spans="1:2">
-      <c r="A579" t="s">
+      <c r="C578" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A579" s="2" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="580" spans="1:2">
+      <c r="C579" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="581" spans="1:2">
+      <c r="C580" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="582" spans="1:2">
+      <c r="C581" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="583" spans="1:2">
-      <c r="A583" t="s">
+      <c r="C582" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A583" s="2" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="584" spans="1:2">
+      <c r="C583" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="585" spans="1:2">
+      <c r="C584" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="586" spans="1:2">
+      <c r="C585" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="587" spans="1:2">
+      <c r="C586" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="588" spans="1:2">
+      <c r="C587" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="589" spans="1:2">
-      <c r="A589" t="s">
+      <c r="C588" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A589" s="2" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="590" spans="1:2">
+      <c r="C589" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="591" spans="1:2">
+      <c r="C590" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="592" spans="1:2">
+      <c r="C591" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="593" spans="1:2">
+      <c r="C592" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="594" spans="1:2">
+      <c r="C593" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="595" spans="1:2">
+      <c r="C594" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="596" spans="1:2">
-      <c r="A596" t="s">
+      <c r="C595" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A596" s="3" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="597" spans="1:2">
+      <c r="C596" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>628</v>
       </c>
@@ -7359,7 +7876,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="598" spans="1:2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>629</v>
       </c>
@@ -7367,7 +7884,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="599" spans="1:2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>630</v>
       </c>
@@ -7375,7 +7892,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="600" spans="1:2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>631</v>
       </c>
@@ -7383,7 +7900,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="601" spans="1:2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>632</v>
       </c>
@@ -7391,7 +7908,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="602" spans="1:2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>633</v>
       </c>
@@ -7399,7 +7916,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="603" spans="1:2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>634</v>
       </c>
@@ -7407,7 +7924,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="604" spans="1:2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>635</v>
       </c>
@@ -7415,7 +7932,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="605" spans="1:2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>636</v>
       </c>
@@ -7423,7 +7940,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="606" spans="1:2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>637</v>
       </c>
@@ -7431,7 +7948,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="607" spans="1:2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>638</v>
       </c>
@@ -7439,7 +7956,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="608" spans="1:2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>639</v>
       </c>
@@ -7447,7 +7964,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="609" spans="1:2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>640</v>
       </c>
@@ -7455,7 +7972,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="610" spans="1:2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>641</v>
       </c>
@@ -7463,7 +7980,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="611" spans="1:2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>642</v>
       </c>
@@ -7471,7 +7988,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="612" spans="1:2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>643</v>
       </c>
@@ -7479,7 +7996,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="613" spans="1:2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>644</v>
       </c>
@@ -7488,17 +8005,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>